--- a/user-data/rems-pp/rems-pp.xlsx
+++ b/user-data/rems-pp/rems-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -970,9 +970,6 @@
     <t>Source: Development Initiatives calculations based on World Bank</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1358,42 +1355,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15">
@@ -1409,11 +1406,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/rems-pp/rems-pp.xlsx
+++ b/user-data/rems-pp/rems-pp.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -979,7 +979,7 @@
     <t>Remittances received divided by the total population of each country</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/rems-pp/rems-pp.xlsx
+++ b/user-data/rems-pp/rems-pp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -985,7 +985,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1408,6 +1411,11 @@
         <v>325</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/rems-pp/rems-pp.xlsx
+++ b/user-data/rems-pp/rems-pp.xlsx
@@ -61,7 +61,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -121,7 +121,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CU</t>
@@ -673,7 +673,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -691,7 +691,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -703,7 +703,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -895,7 +895,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -994,7 +994,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5343,7 +5343,7 @@
         <v>2000</v>
       </c>
       <c r="D282" t="n">
-        <v>16.65959786</v>
+        <v>15.35915077</v>
       </c>
     </row>
     <row r="283">
@@ -5357,7 +5357,7 @@
         <v>2001</v>
       </c>
       <c r="D283" t="n">
-        <v>15.75537185</v>
+        <v>16.40869808</v>
       </c>
     </row>
     <row r="284">
@@ -5371,7 +5371,7 @@
         <v>2002</v>
       </c>
       <c r="D284" t="n">
-        <v>14.47408359</v>
+        <v>16.82553975</v>
       </c>
     </row>
     <row r="285">
@@ -5385,7 +5385,7 @@
         <v>2003</v>
       </c>
       <c r="D285" t="n">
-        <v>13.85808539</v>
+        <v>16.33473106</v>
       </c>
     </row>
     <row r="286">
@@ -5399,7 +5399,7 @@
         <v>2004</v>
       </c>
       <c r="D286" t="n">
-        <v>13.86049374</v>
+        <v>19.86756125</v>
       </c>
     </row>
     <row r="287">
@@ -5413,7 +5413,7 @@
         <v>2005</v>
       </c>
       <c r="D287" t="n">
-        <v>13.49317251</v>
+        <v>17.31910771</v>
       </c>
     </row>
     <row r="288">
@@ -5427,7 +5427,7 @@
         <v>2006</v>
       </c>
       <c r="D288" t="n">
-        <v>12.89943041</v>
+        <v>18.34956388</v>
       </c>
     </row>
     <row r="289">
@@ -5441,7 +5441,7 @@
         <v>2007</v>
       </c>
       <c r="D289" t="n">
-        <v>12.52262153</v>
+        <v>16.98434813</v>
       </c>
     </row>
     <row r="290">
@@ -5455,7 +5455,7 @@
         <v>2008</v>
       </c>
       <c r="D290" t="n">
-        <v>11.44060311</v>
+        <v>15.08275695</v>
       </c>
     </row>
     <row r="291">
@@ -5469,7 +5469,7 @@
         <v>2009</v>
       </c>
       <c r="D291" t="n">
-        <v>19.28565927</v>
+        <v>11.19276274</v>
       </c>
     </row>
     <row r="292">
@@ -5483,7 +5483,7 @@
         <v>2010</v>
       </c>
       <c r="D292" t="n">
-        <v>22.48911238</v>
+        <v>11.60477597</v>
       </c>
     </row>
     <row r="293">
@@ -5497,7 +5497,7 @@
         <v>2011</v>
       </c>
       <c r="D293" t="n">
-        <v>19.98354921</v>
+        <v>11.22391245</v>
       </c>
     </row>
     <row r="294">
@@ -5511,7 +5511,7 @@
         <v>2012</v>
       </c>
       <c r="D294" t="n">
-        <v>18.82471148</v>
+        <v>17.1959726</v>
       </c>
     </row>
     <row r="295">
@@ -5525,7 +5525,7 @@
         <v>2013</v>
       </c>
       <c r="D295" t="n">
-        <v>17.55846243</v>
+        <v>11.36820149</v>
       </c>
     </row>
     <row r="296">
@@ -5539,7 +5539,7 @@
         <v>2000</v>
       </c>
       <c r="D296" t="n">
-        <v>15.35915077</v>
+        <v>3.575577116</v>
       </c>
     </row>
     <row r="297">
@@ -5553,7 +5553,7 @@
         <v>2001</v>
       </c>
       <c r="D297" t="n">
-        <v>16.40869808</v>
+        <v>2.358519793</v>
       </c>
     </row>
     <row r="298">
@@ -5567,7 +5567,7 @@
         <v>2002</v>
       </c>
       <c r="D298" t="n">
-        <v>16.82553975</v>
+        <v>3.6871011</v>
       </c>
     </row>
     <row r="299">
@@ -5581,7 +5581,7 @@
         <v>2003</v>
       </c>
       <c r="D299" t="n">
-        <v>16.33473106</v>
+        <v>6.36916483</v>
       </c>
     </row>
     <row r="300">
@@ -5595,7 +5595,7 @@
         <v>2004</v>
       </c>
       <c r="D300" t="n">
-        <v>19.86756125</v>
+        <v>7.609592885</v>
       </c>
     </row>
     <row r="301">
@@ -5609,7 +5609,7 @@
         <v>2005</v>
       </c>
       <c r="D301" t="n">
-        <v>17.31910771</v>
+        <v>5.37331515</v>
       </c>
     </row>
     <row r="302">
@@ -5623,7 +5623,7 @@
         <v>2006</v>
       </c>
       <c r="D302" t="n">
-        <v>18.34956388</v>
+        <v>8.429942293</v>
       </c>
     </row>
     <row r="303">
@@ -5637,7 +5637,7 @@
         <v>2007</v>
       </c>
       <c r="D303" t="n">
-        <v>16.98434813</v>
+        <v>9.561871752</v>
       </c>
     </row>
     <row r="304">
@@ -5651,7 +5651,7 @@
         <v>2008</v>
       </c>
       <c r="D304" t="n">
-        <v>15.08275695</v>
+        <v>8.050178135</v>
       </c>
     </row>
     <row r="305">
@@ -5665,7 +5665,7 @@
         <v>2009</v>
       </c>
       <c r="D305" t="n">
-        <v>11.19276274</v>
+        <v>9.736278759</v>
       </c>
     </row>
     <row r="306">
@@ -5679,7 +5679,7 @@
         <v>2010</v>
       </c>
       <c r="D306" t="n">
-        <v>11.60477597</v>
+        <v>6.011425853</v>
       </c>
     </row>
     <row r="307">
@@ -5693,7 +5693,7 @@
         <v>2011</v>
       </c>
       <c r="D307" t="n">
-        <v>11.22391245</v>
+        <v>5.389204361</v>
       </c>
     </row>
     <row r="308">
@@ -5707,7 +5707,7 @@
         <v>2012</v>
       </c>
       <c r="D308" t="n">
-        <v>17.1959726</v>
+        <v>5.293129426</v>
       </c>
     </row>
     <row r="309">
@@ -5721,7 +5721,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>11.36820149</v>
+        <v>8.95070394</v>
       </c>
     </row>
     <row r="310">
@@ -5734,9 +5734,7 @@
       <c r="C310" t="n">
         <v>2000</v>
       </c>
-      <c r="D310" t="n">
-        <v>3.575577116</v>
-      </c>
+      <c r="D310"/>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -5748,9 +5746,7 @@
       <c r="C311" t="n">
         <v>2001</v>
       </c>
-      <c r="D311" t="n">
-        <v>2.358519793</v>
-      </c>
+      <c r="D311"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -5762,9 +5758,7 @@
       <c r="C312" t="n">
         <v>2002</v>
       </c>
-      <c r="D312" t="n">
-        <v>3.6871011</v>
-      </c>
+      <c r="D312"/>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -5776,9 +5770,7 @@
       <c r="C313" t="n">
         <v>2003</v>
       </c>
-      <c r="D313" t="n">
-        <v>6.36916483</v>
-      </c>
+      <c r="D313"/>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -5790,9 +5782,7 @@
       <c r="C314" t="n">
         <v>2004</v>
       </c>
-      <c r="D314" t="n">
-        <v>7.609592885</v>
-      </c>
+      <c r="D314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -5804,9 +5794,7 @@
       <c r="C315" t="n">
         <v>2005</v>
       </c>
-      <c r="D315" t="n">
-        <v>5.37331515</v>
-      </c>
+      <c r="D315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -5818,9 +5806,7 @@
       <c r="C316" t="n">
         <v>2006</v>
       </c>
-      <c r="D316" t="n">
-        <v>8.429942293</v>
-      </c>
+      <c r="D316"/>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -5832,9 +5818,7 @@
       <c r="C317" t="n">
         <v>2007</v>
       </c>
-      <c r="D317" t="n">
-        <v>9.561871752</v>
-      </c>
+      <c r="D317"/>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -5846,9 +5830,7 @@
       <c r="C318" t="n">
         <v>2008</v>
       </c>
-      <c r="D318" t="n">
-        <v>8.050178135</v>
-      </c>
+      <c r="D318"/>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -5860,9 +5842,7 @@
       <c r="C319" t="n">
         <v>2009</v>
       </c>
-      <c r="D319" t="n">
-        <v>9.736278759</v>
-      </c>
+      <c r="D319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -5874,9 +5854,7 @@
       <c r="C320" t="n">
         <v>2010</v>
       </c>
-      <c r="D320" t="n">
-        <v>6.011425853</v>
-      </c>
+      <c r="D320"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
@@ -5888,9 +5866,7 @@
       <c r="C321" t="n">
         <v>2011</v>
       </c>
-      <c r="D321" t="n">
-        <v>5.389204361</v>
-      </c>
+      <c r="D321"/>
     </row>
     <row r="322">
       <c r="A322" t="s">
@@ -5902,9 +5878,7 @@
       <c r="C322" t="n">
         <v>2012</v>
       </c>
-      <c r="D322" t="n">
-        <v>5.293129426</v>
-      </c>
+      <c r="D322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -5916,9 +5890,7 @@
       <c r="C323" t="n">
         <v>2013</v>
       </c>
-      <c r="D323" t="n">
-        <v>8.95070394</v>
-      </c>
+      <c r="D323"/>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -5930,7 +5902,9 @@
       <c r="C324" t="n">
         <v>2000</v>
       </c>
-      <c r="D324"/>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -5942,7 +5916,9 @@
       <c r="C325" t="n">
         <v>2001</v>
       </c>
-      <c r="D325"/>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -5954,7 +5930,9 @@
       <c r="C326" t="n">
         <v>2002</v>
       </c>
-      <c r="D326"/>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -5966,7 +5944,9 @@
       <c r="C327" t="n">
         <v>2003</v>
       </c>
-      <c r="D327"/>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -5978,7 +5958,9 @@
       <c r="C328" t="n">
         <v>2004</v>
       </c>
-      <c r="D328"/>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -5990,7 +5972,9 @@
       <c r="C329" t="n">
         <v>2005</v>
       </c>
-      <c r="D329"/>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
@@ -6002,7 +5986,9 @@
       <c r="C330" t="n">
         <v>2006</v>
       </c>
-      <c r="D330"/>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -6014,7 +6000,9 @@
       <c r="C331" t="n">
         <v>2007</v>
       </c>
-      <c r="D331"/>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -6026,7 +6014,9 @@
       <c r="C332" t="n">
         <v>2008</v>
       </c>
-      <c r="D332"/>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -6038,7 +6028,9 @@
       <c r="C333" t="n">
         <v>2009</v>
       </c>
-      <c r="D333"/>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -6050,7 +6042,9 @@
       <c r="C334" t="n">
         <v>2010</v>
       </c>
-      <c r="D334"/>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -6062,7 +6056,9 @@
       <c r="C335" t="n">
         <v>2011</v>
       </c>
-      <c r="D335"/>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -6074,7 +6070,9 @@
       <c r="C336" t="n">
         <v>2012</v>
       </c>
-      <c r="D336"/>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -6086,7 +6084,9 @@
       <c r="C337" t="n">
         <v>2013</v>
       </c>
-      <c r="D337"/>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -6295,7 +6295,7 @@
         <v>2000</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>1.768146551</v>
       </c>
     </row>
     <row r="353">
@@ -6309,7 +6309,7 @@
         <v>2001</v>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>1.767347119</v>
       </c>
     </row>
     <row r="354">
@@ -6323,7 +6323,7 @@
         <v>2002</v>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>1.891494888</v>
       </c>
     </row>
     <row r="355">
@@ -6337,7 +6337,7 @@
         <v>2003</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>1.695431814</v>
       </c>
     </row>
     <row r="356">
@@ -6351,7 +6351,7 @@
         <v>2004</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>1.349943609</v>
       </c>
     </row>
     <row r="357">
@@ -6365,7 +6365,7 @@
         <v>2005</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>1.283896092</v>
       </c>
     </row>
     <row r="358">
@@ -6379,7 +6379,7 @@
         <v>2006</v>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>0.205713301</v>
       </c>
     </row>
     <row r="359">
@@ -6393,7 +6393,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>0.191554058</v>
       </c>
     </row>
     <row r="360">
@@ -6407,7 +6407,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>0.188639246</v>
       </c>
     </row>
     <row r="361">
@@ -6421,7 +6421,7 @@
         <v>2009</v>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>0.33999372</v>
       </c>
     </row>
     <row r="362">
@@ -6435,7 +6435,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>0.281980997</v>
       </c>
     </row>
     <row r="363">
@@ -6477,7 +6477,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>0.017262592</v>
       </c>
     </row>
     <row r="366">
@@ -6491,7 +6491,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>1.768146551</v>
+        <v>8.382546607</v>
       </c>
     </row>
     <row r="367">
@@ -6505,7 +6505,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>1.767347119</v>
+        <v>11.05579242</v>
       </c>
     </row>
     <row r="368">
@@ -6519,7 +6519,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>1.891494888</v>
+        <v>17.18382287</v>
       </c>
     </row>
     <row r="369">
@@ -6533,7 +6533,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>1.695431814</v>
+        <v>23.51993902</v>
       </c>
     </row>
     <row r="370">
@@ -6547,7 +6547,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>1.349943609</v>
+        <v>29.4372263</v>
       </c>
     </row>
     <row r="371">
@@ -6561,7 +6561,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>1.283896092</v>
+        <v>33.43253943</v>
       </c>
     </row>
     <row r="372">
@@ -6575,7 +6575,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>0.205713301</v>
+        <v>36.37189001</v>
       </c>
     </row>
     <row r="373">
@@ -6589,7 +6589,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>0.191554058</v>
+        <v>44.69337929</v>
       </c>
     </row>
     <row r="374">
@@ -6603,7 +6603,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>0.188639246</v>
+        <v>46.87078637</v>
       </c>
     </row>
     <row r="375">
@@ -6617,7 +6617,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>0.33999372</v>
+        <v>40.22771792</v>
       </c>
     </row>
     <row r="376">
@@ -6631,7 +6631,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>0.281980997</v>
+        <v>46.96255722</v>
       </c>
     </row>
     <row r="377">
@@ -6645,7 +6645,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>48.5758556</v>
       </c>
     </row>
     <row r="378">
@@ -6659,7 +6659,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>42.79200217</v>
       </c>
     </row>
     <row r="379">
@@ -6673,7 +6673,7 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v>0.017262592</v>
+        <v>41.78824535</v>
       </c>
     </row>
     <row r="380">
@@ -6687,7 +6687,7 @@
         <v>2000</v>
       </c>
       <c r="D380" t="n">
-        <v>8.382546607</v>
+        <v>90.30584948</v>
       </c>
     </row>
     <row r="381">
@@ -6701,7 +6701,7 @@
         <v>2001</v>
       </c>
       <c r="D381" t="n">
-        <v>11.05579242</v>
+        <v>117.3131799</v>
       </c>
     </row>
     <row r="382">
@@ -6715,7 +6715,7 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>17.18382287</v>
+        <v>143.0695604</v>
       </c>
     </row>
     <row r="383">
@@ -6729,7 +6729,7 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>23.51993902</v>
+        <v>187.8940053</v>
       </c>
     </row>
     <row r="384">
@@ -6743,7 +6743,7 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>29.4372263</v>
+        <v>163.3359962</v>
       </c>
     </row>
     <row r="385">
@@ -6757,7 +6757,7 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>33.43253943</v>
+        <v>141.1193868</v>
       </c>
     </row>
     <row r="386">
@@ -6771,7 +6771,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>36.37189001</v>
+        <v>156.9623024</v>
       </c>
     </row>
     <row r="387">
@@ -6785,7 +6785,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>44.69337929</v>
+        <v>149.2275638</v>
       </c>
     </row>
     <row r="388">
@@ -6799,7 +6799,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>46.87078637</v>
+        <v>139.792419</v>
       </c>
     </row>
     <row r="389">
@@ -6813,7 +6813,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>40.22771792</v>
+        <v>125.0893399</v>
       </c>
     </row>
     <row r="390">
@@ -6827,7 +6827,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>46.96255722</v>
+        <v>101.4470808</v>
       </c>
     </row>
     <row r="391">
@@ -6841,7 +6841,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>48.5758556</v>
+        <v>94.37590293</v>
       </c>
     </row>
     <row r="392">
@@ -6855,7 +6855,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>42.79200217</v>
+        <v>86.4218244</v>
       </c>
     </row>
     <row r="393">
@@ -6869,7 +6869,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>41.78824535</v>
+        <v>86.68177134</v>
       </c>
     </row>
     <row r="394">
@@ -6883,7 +6883,7 @@
         <v>2000</v>
       </c>
       <c r="D394" t="n">
-        <v>90.30584948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -6897,7 +6897,7 @@
         <v>2001</v>
       </c>
       <c r="D395" t="n">
-        <v>117.3131799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -6911,7 +6911,7 @@
         <v>2002</v>
       </c>
       <c r="D396" t="n">
-        <v>143.0695604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -6925,7 +6925,7 @@
         <v>2003</v>
       </c>
       <c r="D397" t="n">
-        <v>187.8940053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -6939,7 +6939,7 @@
         <v>2004</v>
       </c>
       <c r="D398" t="n">
-        <v>163.3359962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -6953,7 +6953,7 @@
         <v>2005</v>
       </c>
       <c r="D399" t="n">
-        <v>141.1193868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -6967,7 +6967,7 @@
         <v>2006</v>
       </c>
       <c r="D400" t="n">
-        <v>156.9623024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -6981,7 +6981,7 @@
         <v>2007</v>
       </c>
       <c r="D401" t="n">
-        <v>149.2275638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -6995,7 +6995,7 @@
         <v>2008</v>
       </c>
       <c r="D402" t="n">
-        <v>139.792419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -7009,7 +7009,7 @@
         <v>2009</v>
       </c>
       <c r="D403" t="n">
-        <v>125.0893399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -7023,7 +7023,7 @@
         <v>2010</v>
       </c>
       <c r="D404" t="n">
-        <v>101.4470808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -7037,7 +7037,7 @@
         <v>2011</v>
       </c>
       <c r="D405" t="n">
-        <v>94.37590293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -7051,7 +7051,7 @@
         <v>2012</v>
       </c>
       <c r="D406" t="n">
-        <v>86.4218244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -7065,7 +7065,7 @@
         <v>2013</v>
       </c>
       <c r="D407" t="n">
-        <v>86.68177134</v>
+        <v>75.23434179</v>
       </c>
     </row>
     <row r="408">
@@ -7079,7 +7079,7 @@
         <v>2000</v>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>8.324302101</v>
       </c>
     </row>
     <row r="409">
@@ -7093,7 +7093,7 @@
         <v>2001</v>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>11.36870997</v>
       </c>
     </row>
     <row r="410">
@@ -7107,7 +7107,7 @@
         <v>2002</v>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>1.042419372</v>
       </c>
     </row>
     <row r="411">
@@ -7121,7 +7121,7 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>9.31384897</v>
       </c>
     </row>
     <row r="412">
@@ -7135,7 +7135,7 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>8.537880186</v>
       </c>
     </row>
     <row r="413">
@@ -7149,7 +7149,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>5.200457894</v>
       </c>
     </row>
     <row r="414">
@@ -7163,7 +7163,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>4.90699959</v>
       </c>
     </row>
     <row r="415">
@@ -7177,7 +7177,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>4.841267691</v>
       </c>
     </row>
     <row r="416">
@@ -7261,7 +7261,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>75.23434179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -7274,9 +7274,7 @@
       <c r="C422" t="n">
         <v>2000</v>
       </c>
-      <c r="D422" t="n">
-        <v>8.324302101</v>
-      </c>
+      <c r="D422"/>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -7288,9 +7286,7 @@
       <c r="C423" t="n">
         <v>2001</v>
       </c>
-      <c r="D423" t="n">
-        <v>11.36870997</v>
-      </c>
+      <c r="D423"/>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -7302,9 +7298,7 @@
       <c r="C424" t="n">
         <v>2002</v>
       </c>
-      <c r="D424" t="n">
-        <v>1.042419372</v>
-      </c>
+      <c r="D424"/>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -7316,9 +7310,7 @@
       <c r="C425" t="n">
         <v>2003</v>
       </c>
-      <c r="D425" t="n">
-        <v>9.31384897</v>
-      </c>
+      <c r="D425"/>
     </row>
     <row r="426">
       <c r="A426" t="s">
@@ -7330,9 +7322,7 @@
       <c r="C426" t="n">
         <v>2004</v>
       </c>
-      <c r="D426" t="n">
-        <v>8.537880186</v>
-      </c>
+      <c r="D426"/>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -7344,9 +7334,7 @@
       <c r="C427" t="n">
         <v>2005</v>
       </c>
-      <c r="D427" t="n">
-        <v>5.200457894</v>
-      </c>
+      <c r="D427"/>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -7358,9 +7346,7 @@
       <c r="C428" t="n">
         <v>2006</v>
       </c>
-      <c r="D428" t="n">
-        <v>4.90699959</v>
-      </c>
+      <c r="D428"/>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -7372,9 +7358,7 @@
       <c r="C429" t="n">
         <v>2007</v>
       </c>
-      <c r="D429" t="n">
-        <v>4.841267691</v>
-      </c>
+      <c r="D429"/>
     </row>
     <row r="430">
       <c r="A430" t="s">
@@ -7386,9 +7370,7 @@
       <c r="C430" t="n">
         <v>2008</v>
       </c>
-      <c r="D430" t="n">
-        <v>0</v>
-      </c>
+      <c r="D430"/>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -7400,9 +7382,7 @@
       <c r="C431" t="n">
         <v>2009</v>
       </c>
-      <c r="D431" t="n">
-        <v>0</v>
-      </c>
+      <c r="D431"/>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -7414,9 +7394,7 @@
       <c r="C432" t="n">
         <v>2010</v>
       </c>
-      <c r="D432" t="n">
-        <v>0</v>
-      </c>
+      <c r="D432"/>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -7428,9 +7406,7 @@
       <c r="C433" t="n">
         <v>2011</v>
       </c>
-      <c r="D433" t="n">
-        <v>0</v>
-      </c>
+      <c r="D433"/>
     </row>
     <row r="434">
       <c r="A434" t="s">
@@ -7442,9 +7418,7 @@
       <c r="C434" t="n">
         <v>2012</v>
       </c>
-      <c r="D434" t="n">
-        <v>0</v>
-      </c>
+      <c r="D434"/>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -7456,9 +7430,7 @@
       <c r="C435" t="n">
         <v>2013</v>
       </c>
-      <c r="D435" t="n">
-        <v>0</v>
-      </c>
+      <c r="D435"/>
     </row>
     <row r="436">
       <c r="A436" t="s">
@@ -7470,7 +7442,9 @@
       <c r="C436" t="n">
         <v>2000</v>
       </c>
-      <c r="D436"/>
+      <c r="D436" t="n">
+        <v>58.53051998</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -7482,7 +7456,9 @@
       <c r="C437" t="n">
         <v>2001</v>
       </c>
-      <c r="D437"/>
+      <c r="D437" t="n">
+        <v>82.17912692</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -7494,7 +7470,9 @@
       <c r="C438" t="n">
         <v>2002</v>
       </c>
-      <c r="D438"/>
+      <c r="D438" t="n">
+        <v>101.9778621</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -7506,7 +7484,9 @@
       <c r="C439" t="n">
         <v>2003</v>
       </c>
-      <c r="D439"/>
+      <c r="D439" t="n">
+        <v>131.0945468</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -7518,7 +7498,9 @@
       <c r="C440" t="n">
         <v>2004</v>
       </c>
-      <c r="D440"/>
+      <c r="D440" t="n">
+        <v>125.9561267</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -7530,7 +7512,9 @@
       <c r="C441" t="n">
         <v>2005</v>
       </c>
-      <c r="D441"/>
+      <c r="D441" t="n">
+        <v>160.6111608</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -7542,7 +7526,9 @@
       <c r="C442" t="n">
         <v>2006</v>
       </c>
-      <c r="D442"/>
+      <c r="D442" t="n">
+        <v>185.9251261</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -7554,7 +7540,9 @@
       <c r="C443" t="n">
         <v>2007</v>
       </c>
-      <c r="D443"/>
+      <c r="D443" t="n">
+        <v>203.5215417</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -7566,7 +7554,9 @@
       <c r="C444" t="n">
         <v>2008</v>
       </c>
-      <c r="D444"/>
+      <c r="D444" t="n">
+        <v>177.7515058</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -7578,7 +7568,9 @@
       <c r="C445" t="n">
         <v>2009</v>
       </c>
-      <c r="D445"/>
+      <c r="D445" t="n">
+        <v>149.321843</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -7590,7 +7582,9 @@
       <c r="C446" t="n">
         <v>2010</v>
       </c>
-      <c r="D446"/>
+      <c r="D446" t="n">
+        <v>129.2960411</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -7602,7 +7596,9 @@
       <c r="C447" t="n">
         <v>2011</v>
       </c>
-      <c r="D447"/>
+      <c r="D447" t="n">
+        <v>114.9231256</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -7614,7 +7610,9 @@
       <c r="C448" t="n">
         <v>2012</v>
       </c>
-      <c r="D448"/>
+      <c r="D448" t="n">
+        <v>117.0256378</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -7626,7 +7624,9 @@
       <c r="C449" t="n">
         <v>2013</v>
       </c>
-      <c r="D449"/>
+      <c r="D449" t="n">
+        <v>117.6817986</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
@@ -7639,7 +7639,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>58.53051998</v>
+        <v>16.65959786</v>
       </c>
     </row>
     <row r="451">
@@ -7653,7 +7653,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>82.17912692</v>
+        <v>15.75537185</v>
       </c>
     </row>
     <row r="452">
@@ -7667,7 +7667,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>101.9778621</v>
+        <v>14.47408359</v>
       </c>
     </row>
     <row r="453">
@@ -7681,7 +7681,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>131.0945468</v>
+        <v>13.85808539</v>
       </c>
     </row>
     <row r="454">
@@ -7695,7 +7695,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>125.9561267</v>
+        <v>13.86049374</v>
       </c>
     </row>
     <row r="455">
@@ -7709,7 +7709,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>160.6111608</v>
+        <v>13.49317251</v>
       </c>
     </row>
     <row r="456">
@@ -7723,7 +7723,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>185.9251261</v>
+        <v>12.89943041</v>
       </c>
     </row>
     <row r="457">
@@ -7737,7 +7737,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>203.5215417</v>
+        <v>12.52262153</v>
       </c>
     </row>
     <row r="458">
@@ -7751,7 +7751,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>177.7515058</v>
+        <v>11.44060311</v>
       </c>
     </row>
     <row r="459">
@@ -7765,7 +7765,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>149.321843</v>
+        <v>19.28565927</v>
       </c>
     </row>
     <row r="460">
@@ -7779,7 +7779,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>129.2960411</v>
+        <v>22.48911238</v>
       </c>
     </row>
     <row r="461">
@@ -7793,7 +7793,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>114.9231256</v>
+        <v>19.98354921</v>
       </c>
     </row>
     <row r="462">
@@ -7807,7 +7807,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>117.0256378</v>
+        <v>18.82471148</v>
       </c>
     </row>
     <row r="463">
@@ -7821,7 +7821,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>117.6817986</v>
+        <v>17.55846243</v>
       </c>
     </row>
     <row r="464">
@@ -31056,46 +31056,46 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>16.65959786</v>
+        <v>15.35915077</v>
       </c>
       <c r="D22" t="n">
-        <v>15.75537185</v>
+        <v>16.40869808</v>
       </c>
       <c r="E22" t="n">
-        <v>14.47408359</v>
+        <v>16.82553975</v>
       </c>
       <c r="F22" t="n">
-        <v>13.85808539</v>
+        <v>16.33473106</v>
       </c>
       <c r="G22" t="n">
-        <v>13.86049374</v>
+        <v>19.86756125</v>
       </c>
       <c r="H22" t="n">
-        <v>13.49317251</v>
+        <v>17.31910771</v>
       </c>
       <c r="I22" t="n">
-        <v>12.89943041</v>
+        <v>18.34956388</v>
       </c>
       <c r="J22" t="n">
-        <v>12.52262153</v>
+        <v>16.98434813</v>
       </c>
       <c r="K22" t="n">
-        <v>11.44060311</v>
+        <v>15.08275695</v>
       </c>
       <c r="L22" t="n">
-        <v>19.28565927</v>
+        <v>11.19276274</v>
       </c>
       <c r="M22" t="n">
-        <v>22.48911238</v>
+        <v>11.60477597</v>
       </c>
       <c r="N22" t="n">
-        <v>19.98354921</v>
+        <v>11.22391245</v>
       </c>
       <c r="O22" t="n">
-        <v>18.82471148</v>
+        <v>17.1959726</v>
       </c>
       <c r="P22" t="n">
-        <v>17.55846243</v>
+        <v>11.36820149</v>
       </c>
     </row>
     <row r="23">
@@ -31106,46 +31106,46 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>15.35915077</v>
+        <v>3.575577116</v>
       </c>
       <c r="D23" t="n">
-        <v>16.40869808</v>
+        <v>2.358519793</v>
       </c>
       <c r="E23" t="n">
-        <v>16.82553975</v>
+        <v>3.6871011</v>
       </c>
       <c r="F23" t="n">
-        <v>16.33473106</v>
+        <v>6.36916483</v>
       </c>
       <c r="G23" t="n">
-        <v>19.86756125</v>
+        <v>7.609592885</v>
       </c>
       <c r="H23" t="n">
-        <v>17.31910771</v>
+        <v>5.37331515</v>
       </c>
       <c r="I23" t="n">
-        <v>18.34956388</v>
+        <v>8.429942293</v>
       </c>
       <c r="J23" t="n">
-        <v>16.98434813</v>
+        <v>9.561871752</v>
       </c>
       <c r="K23" t="n">
-        <v>15.08275695</v>
+        <v>8.050178135</v>
       </c>
       <c r="L23" t="n">
-        <v>11.19276274</v>
+        <v>9.736278759</v>
       </c>
       <c r="M23" t="n">
-        <v>11.60477597</v>
+        <v>6.011425853</v>
       </c>
       <c r="N23" t="n">
-        <v>11.22391245</v>
+        <v>5.389204361</v>
       </c>
       <c r="O23" t="n">
-        <v>17.1959726</v>
+        <v>5.293129426</v>
       </c>
       <c r="P23" t="n">
-        <v>11.36820149</v>
+        <v>8.95070394</v>
       </c>
     </row>
     <row r="24">
@@ -31155,48 +31155,20 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="n">
-        <v>3.575577116</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.358519793</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.6871011</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.36916483</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.609592885</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5.37331515</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.429942293</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.561871752</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8.050178135</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9.736278759</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6.011425853</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.389204361</v>
-      </c>
-      <c r="O24" t="n">
-        <v>5.293129426</v>
-      </c>
-      <c r="P24" t="n">
-        <v>8.95070394</v>
-      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -31205,20 +31177,48 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -31278,37 +31278,37 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.768146551</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.767347119</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.891494888</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.695431814</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.349943609</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.283896092</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.205713301</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.191554058</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.188639246</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.33999372</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.281980997</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -31317,7 +31317,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.017262592</v>
       </c>
     </row>
     <row r="28">
@@ -31328,46 +31328,46 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>1.768146551</v>
+        <v>8.382546607</v>
       </c>
       <c r="D28" t="n">
-        <v>1.767347119</v>
+        <v>11.05579242</v>
       </c>
       <c r="E28" t="n">
-        <v>1.891494888</v>
+        <v>17.18382287</v>
       </c>
       <c r="F28" t="n">
-        <v>1.695431814</v>
+        <v>23.51993902</v>
       </c>
       <c r="G28" t="n">
-        <v>1.349943609</v>
+        <v>29.4372263</v>
       </c>
       <c r="H28" t="n">
-        <v>1.283896092</v>
+        <v>33.43253943</v>
       </c>
       <c r="I28" t="n">
-        <v>0.205713301</v>
+        <v>36.37189001</v>
       </c>
       <c r="J28" t="n">
-        <v>0.191554058</v>
+        <v>44.69337929</v>
       </c>
       <c r="K28" t="n">
-        <v>0.188639246</v>
+        <v>46.87078637</v>
       </c>
       <c r="L28" t="n">
-        <v>0.33999372</v>
+        <v>40.22771792</v>
       </c>
       <c r="M28" t="n">
-        <v>0.281980997</v>
+        <v>46.96255722</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>48.5758556</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>42.79200217</v>
       </c>
       <c r="P28" t="n">
-        <v>0.017262592</v>
+        <v>41.78824535</v>
       </c>
     </row>
     <row r="29">
@@ -31378,46 +31378,46 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>8.382546607</v>
+        <v>90.30584948</v>
       </c>
       <c r="D29" t="n">
-        <v>11.05579242</v>
+        <v>117.3131799</v>
       </c>
       <c r="E29" t="n">
-        <v>17.18382287</v>
+        <v>143.0695604</v>
       </c>
       <c r="F29" t="n">
-        <v>23.51993902</v>
+        <v>187.8940053</v>
       </c>
       <c r="G29" t="n">
-        <v>29.4372263</v>
+        <v>163.3359962</v>
       </c>
       <c r="H29" t="n">
-        <v>33.43253943</v>
+        <v>141.1193868</v>
       </c>
       <c r="I29" t="n">
-        <v>36.37189001</v>
+        <v>156.9623024</v>
       </c>
       <c r="J29" t="n">
-        <v>44.69337929</v>
+        <v>149.2275638</v>
       </c>
       <c r="K29" t="n">
-        <v>46.87078637</v>
+        <v>139.792419</v>
       </c>
       <c r="L29" t="n">
-        <v>40.22771792</v>
+        <v>125.0893399</v>
       </c>
       <c r="M29" t="n">
-        <v>46.96255722</v>
+        <v>101.4470808</v>
       </c>
       <c r="N29" t="n">
-        <v>48.5758556</v>
+        <v>94.37590293</v>
       </c>
       <c r="O29" t="n">
-        <v>42.79200217</v>
+        <v>86.4218244</v>
       </c>
       <c r="P29" t="n">
-        <v>41.78824535</v>
+        <v>86.68177134</v>
       </c>
     </row>
     <row r="30">
@@ -31428,46 +31428,46 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>90.30584948</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>117.3131799</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>143.0695604</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>187.8940053</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>163.3359962</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>141.1193868</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>156.9623024</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.2275638</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>139.792419</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>125.0893399</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.4470808</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>94.37590293</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>86.4218244</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>86.68177134</v>
+        <v>75.23434179</v>
       </c>
     </row>
     <row r="31">
@@ -31478,28 +31478,28 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8.324302101</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>11.36870997</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.042419372</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.31384897</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>8.537880186</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.200457894</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.90699959</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.841267691</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31517,7 +31517,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>75.23434179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31527,48 +31527,20 @@
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="n">
-        <v>8.324302101</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11.36870997</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.042419372</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9.31384897</v>
-      </c>
-      <c r="G32" t="n">
-        <v>8.537880186</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5.200457894</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.90699959</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.841267691</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -31577,20 +31549,48 @@
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
+      <c r="C33" t="n">
+        <v>58.53051998</v>
+      </c>
+      <c r="D33" t="n">
+        <v>82.17912692</v>
+      </c>
+      <c r="E33" t="n">
+        <v>101.9778621</v>
+      </c>
+      <c r="F33" t="n">
+        <v>131.0945468</v>
+      </c>
+      <c r="G33" t="n">
+        <v>125.9561267</v>
+      </c>
+      <c r="H33" t="n">
+        <v>160.6111608</v>
+      </c>
+      <c r="I33" t="n">
+        <v>185.9251261</v>
+      </c>
+      <c r="J33" t="n">
+        <v>203.5215417</v>
+      </c>
+      <c r="K33" t="n">
+        <v>177.7515058</v>
+      </c>
+      <c r="L33" t="n">
+        <v>149.321843</v>
+      </c>
+      <c r="M33" t="n">
+        <v>129.2960411</v>
+      </c>
+      <c r="N33" t="n">
+        <v>114.9231256</v>
+      </c>
+      <c r="O33" t="n">
+        <v>117.0256378</v>
+      </c>
+      <c r="P33" t="n">
+        <v>117.6817986</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -31600,46 +31600,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>58.53051998</v>
+        <v>16.65959786</v>
       </c>
       <c r="D34" t="n">
-        <v>82.17912692</v>
+        <v>15.75537185</v>
       </c>
       <c r="E34" t="n">
-        <v>101.9778621</v>
+        <v>14.47408359</v>
       </c>
       <c r="F34" t="n">
-        <v>131.0945468</v>
+        <v>13.85808539</v>
       </c>
       <c r="G34" t="n">
-        <v>125.9561267</v>
+        <v>13.86049374</v>
       </c>
       <c r="H34" t="n">
-        <v>160.6111608</v>
+        <v>13.49317251</v>
       </c>
       <c r="I34" t="n">
-        <v>185.9251261</v>
+        <v>12.89943041</v>
       </c>
       <c r="J34" t="n">
-        <v>203.5215417</v>
+        <v>12.52262153</v>
       </c>
       <c r="K34" t="n">
-        <v>177.7515058</v>
+        <v>11.44060311</v>
       </c>
       <c r="L34" t="n">
-        <v>149.321843</v>
+        <v>19.28565927</v>
       </c>
       <c r="M34" t="n">
-        <v>129.2960411</v>
+        <v>22.48911238</v>
       </c>
       <c r="N34" t="n">
-        <v>114.9231256</v>
+        <v>19.98354921</v>
       </c>
       <c r="O34" t="n">
-        <v>117.0256378</v>
+        <v>18.82471148</v>
       </c>
       <c r="P34" t="n">
-        <v>117.6817986</v>
+        <v>17.55846243</v>
       </c>
     </row>
     <row r="35">
